--- a/Asignacion Tutorias LE.xlsx
+++ b/Asignacion Tutorias LE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
   <si>
     <t>REGISTRO DE REPORTES DE TUTORÍAS SEMESTRE 17-18 B</t>
   </si>
@@ -25,7 +25,7 @@
     <t/>
   </si>
   <si>
-    <t>tutorias grupales</t>
+    <t>TUTORIAS GRUPALES</t>
   </si>
   <si>
     <t>N°</t>
@@ -123,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -131,16 +131,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,12 +163,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -166,18 +258,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.8359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="31.4453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -187,40 +279,42 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -235,29 +329,31 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="2">
         <v>7</v>
       </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -267,33 +363,43 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -301,110 +407,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.15234375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.2734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -412,93 +530,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="3.2578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="25.10546875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="14.1328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="7.62109375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.4375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="7.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
